--- a/data/parameter.xlsx
+++ b/data/parameter.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yerong/Documents/Thermal-Conduction/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>SLAB NUMBER</t>
   </si>
@@ -94,24 +81,48 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -120,25 +131,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,40 +474,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+  <cellStyles count="53">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Result" xfId="27"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Bad" xfId="30" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="Result2" xfId="45"/>
+    <cellStyle name="40% - Accent5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="47" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="50" builtinId="52"/>
+    <cellStyle name="Heading" xfId="51"/>
+    <cellStyle name="Heading1" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -226,7 +835,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -259,26 +868,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -311,23 +903,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,34 +1044,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="1015" width="10.6640625" customWidth="1"/>
+    <col min="6" max="7" width="10.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
+    <col min="9" max="1015" width="10.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>16</v>
       </c>
@@ -524,19 +1096,19 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <f>4*0.06*15*(9.356^2)/D2*(SIN(3.14159235659/A2))^2*A2</f>
-        <v>10.254557804351533</v>
+        <f t="shared" ref="C2:C6" si="0">4*0.06*15*(9.356^2)/D2*(SIN(3.14159235659/A2))^2*A2</f>
+        <v>10.2545578043515</v>
       </c>
       <c r="D2">
-        <f>46.784*B2/30</f>
+        <f t="shared" ref="D2:D7" si="1">46.784*B2/30</f>
         <v>18.7136</v>
       </c>
       <c r="E2">
-        <f>144*B2</f>
+        <f t="shared" ref="E2:E6" si="2">144*B2</f>
         <v>1728</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>16</v>
       </c>
@@ -544,19 +1116,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <f>4*0.06*15*(9.356^2)/D3*(SIN(3.14159235659/A3))^2*A3</f>
-        <v>8.2036462434812254</v>
+        <f t="shared" si="0"/>
+        <v>8.20364624348123</v>
       </c>
       <c r="D3">
-        <f>46.784*B3/30</f>
-        <v>23.391999999999999</v>
+        <f t="shared" si="1"/>
+        <v>23.392</v>
       </c>
       <c r="E3">
-        <f>144*B3</f>
+        <f t="shared" si="2"/>
         <v>2160</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>20</v>
       </c>
@@ -564,19 +1136,19 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <f>4*0.06*15*(9.356^2)/D4*(SIN(3.14159235659/A4))^2*A4</f>
-        <v>3.2967071729506876</v>
+        <f t="shared" si="0"/>
+        <v>3.29670717295069</v>
       </c>
       <c r="D4">
-        <f>46.784*B4/30</f>
-        <v>46.783999999999999</v>
+        <f t="shared" si="1"/>
+        <v>46.784</v>
       </c>
       <c r="E4">
-        <f>144*B4</f>
+        <f t="shared" si="2"/>
         <v>4320</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>20</v>
       </c>
@@ -584,19 +1156,19 @@
         <v>40</v>
       </c>
       <c r="C5">
-        <f>4*0.06*15*(9.356^2)/D5*(SIN(3.14159235659/A5))^2*A5</f>
-        <v>2.472530379713016</v>
+        <f t="shared" si="0"/>
+        <v>2.47253037971302</v>
       </c>
       <c r="D5">
-        <f>46.784*B5/30</f>
-        <v>62.37866666666666</v>
+        <f t="shared" si="1"/>
+        <v>62.3786666666667</v>
       </c>
       <c r="E5">
-        <f>144*B5</f>
+        <f t="shared" si="2"/>
         <v>5760</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>20</v>
       </c>
@@ -604,19 +1176,31 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <f>4*0.06*15*(9.356^2)/D6*(SIN(3.14159235659/A6))^2*A6</f>
-        <v>1.6483535864753438</v>
+        <f t="shared" si="0"/>
+        <v>1.64835358647534</v>
       </c>
       <c r="D6">
-        <f>46.784*B6/30</f>
-        <v>93.567999999999998</v>
+        <f t="shared" si="1"/>
+        <v>93.568</v>
       </c>
       <c r="E6">
-        <f>144*B6</f>
+        <f t="shared" si="2"/>
         <v>8640</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" ht="15" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>12</v>
       </c>
@@ -624,15 +1208,15 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <f>4*0.03*F8*(9.356^2)/D8*(SIN(3.14159235659/A8))^2*A8</f>
-        <v>5.865719746248546</v>
+        <f t="shared" ref="C8:C10" si="3">4*0.03*F8*(9.356^2)/D8*(SIN(3.14159235659/A8))^2*A8</f>
+        <v>5.86571974624855</v>
       </c>
       <c r="D8">
-        <f>46.784*B8/30</f>
+        <f t="shared" ref="D8:D10" si="4">46.784*B8/30</f>
         <v>18.7136</v>
       </c>
       <c r="E8">
-        <f>144*B8</f>
+        <f t="shared" ref="E8:E10" si="5">144*B8</f>
         <v>1728</v>
       </c>
       <c r="F8">
@@ -651,7 +1235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -659,15 +1243,15 @@
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <f>4*0.03*F9*(9.356^2)/D9*(SIN(3.14159235659/A9))^2*A9</f>
-        <v>3.5890952315230367</v>
+        <f t="shared" si="3"/>
+        <v>3.58909523152304</v>
       </c>
       <c r="D9" s="1">
-        <f>46.784*B9/30</f>
-        <v>24.951466666666665</v>
+        <f t="shared" si="4"/>
+        <v>24.9514666666667</v>
       </c>
       <c r="E9" s="1">
-        <f>144*B9</f>
+        <f t="shared" si="5"/>
         <v>2304</v>
       </c>
       <c r="F9" s="1">
@@ -683,7 +1267,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>20</v>
       </c>
@@ -691,15 +1275,15 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <f>4*0.03*F10*(9.356^2)/D10*(SIN(3.14159235659/A10))^2*A10</f>
-        <v>2.472530379713016</v>
+        <f t="shared" si="3"/>
+        <v>2.47253037971302</v>
       </c>
       <c r="D10">
-        <f>46.784*B10/30</f>
-        <v>31.18933333333333</v>
+        <f t="shared" si="4"/>
+        <v>31.1893333333333</v>
       </c>
       <c r="E10">
-        <f>144*B10</f>
+        <f t="shared" si="5"/>
         <v>2880</v>
       </c>
       <c r="F10">
@@ -718,7 +1302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>28</v>
       </c>
@@ -726,15 +1310,15 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <f>4*0.03*F12*(9.356^2)/D12*(SIN(3.14159235659/A12))^2*A12</f>
-        <v>1.4354726434762064</v>
+        <f t="shared" ref="C12:C14" si="6">4*0.03*F12*(9.356^2)/D12*(SIN(3.14159235659/A12))^2*A12</f>
+        <v>1.43547264347621</v>
       </c>
       <c r="D12">
-        <f>46.784*B12/30</f>
-        <v>43.665066666666668</v>
+        <f t="shared" ref="D12:D14" si="7">46.784*B12/30</f>
+        <v>43.6650666666667</v>
       </c>
       <c r="E12">
-        <f>144*B12</f>
+        <f t="shared" ref="E12:E14" si="8">144*B12</f>
         <v>4032</v>
       </c>
       <c r="F12">
@@ -753,13 +1337,13 @@
         <v>0.2</v>
       </c>
       <c r="K12">
-        <v>17.670000000000002</v>
+        <v>17.67</v>
       </c>
       <c r="L12">
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:12">
       <c r="A13" s="1">
         <v>32</v>
       </c>
@@ -767,15 +1351,15 @@
         <v>32</v>
       </c>
       <c r="C13" s="1">
-        <f>4*0.03*F13*(9.356^2)/D13*(SIN(3.14159235659/A13))^2*A13</f>
-        <v>1.1001159747093752</v>
+        <f t="shared" si="6"/>
+        <v>1.10011597470938</v>
       </c>
       <c r="D13" s="1">
-        <f>46.784*B13/30</f>
-        <v>49.90293333333333</v>
+        <f t="shared" si="7"/>
+        <v>49.9029333333333</v>
       </c>
       <c r="E13" s="1">
-        <f>144*B13</f>
+        <f t="shared" si="8"/>
         <v>4608</v>
       </c>
       <c r="F13" s="1">
@@ -797,7 +1381,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" spans="1:24">
       <c r="A14" s="2">
         <v>36</v>
       </c>
@@ -805,15 +1389,15 @@
         <v>36</v>
       </c>
       <c r="C14" s="2">
-        <f>4*0.03*F14*(9.356^2)/D14*(SIN(3.14159235659/A14))^2*A14</f>
-        <v>0.86981407751986939</v>
+        <f t="shared" si="6"/>
+        <v>0.869814077519869</v>
       </c>
       <c r="D14" s="2">
-        <f>46.784*B14/30</f>
-        <v>56.140799999999999</v>
+        <f t="shared" si="7"/>
+        <v>56.1408</v>
       </c>
       <c r="E14" s="2">
-        <f>144*B14</f>
+        <f t="shared" si="8"/>
         <v>5184</v>
       </c>
       <c r="F14" s="2">
@@ -838,7 +1422,7 @@
         <v>0.26</v>
       </c>
       <c r="M14" s="2">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
       <c r="N14" s="2">
         <v>0.25</v>
@@ -853,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="R14" s="2">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="S14" s="2">
         <v>0.26</v>
@@ -871,11 +1455,11 @@
         <v>18.47</v>
       </c>
       <c r="X14" s="2">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+        <v>0.096</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15"/>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>56</v>
       </c>
@@ -883,15 +1467,15 @@
         <v>56</v>
       </c>
       <c r="C16">
-        <f>4*0.03*F16*(9.356^2)/D16*(SIN(3.14159235659/A16))^2*A16</f>
-        <v>0.38117643115490385</v>
+        <f t="shared" ref="C16:C18" si="9">4*0.03*F16*(9.356^2)/D16*(SIN(3.14159235659/A16))^2*A16</f>
+        <v>0.381176431154904</v>
       </c>
       <c r="D16">
-        <f>46.784*B16/30</f>
-        <v>87.330133333333336</v>
+        <f t="shared" ref="D16:D18" si="10">46.784*B16/30</f>
+        <v>87.3301333333333</v>
       </c>
       <c r="E16">
-        <f>144*B16</f>
+        <f t="shared" ref="E16:E18" si="11">144*B16</f>
         <v>8064</v>
       </c>
       <c r="F16">
@@ -907,7 +1491,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A17" s="1">
         <v>64</v>
       </c>
@@ -915,15 +1499,15 @@
         <v>64</v>
       </c>
       <c r="C17" s="1">
-        <f>4*0.03*F17*(9.356^2)/D17*(SIN(3.14159235659/A17))^2*A17</f>
-        <v>0.29190998282043018</v>
+        <f t="shared" si="9"/>
+        <v>0.29190998282043</v>
       </c>
       <c r="D17" s="1">
-        <f>46.784*B17/30</f>
-        <v>99.80586666666666</v>
+        <f t="shared" si="10"/>
+        <v>99.8058666666667</v>
       </c>
       <c r="E17" s="1">
-        <f>144*B17</f>
+        <f t="shared" si="11"/>
         <v>9216</v>
       </c>
       <c r="F17" s="1">
@@ -936,13 +1520,13 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <v>19.079999999999998</v>
+        <v>19.08</v>
       </c>
       <c r="J17" s="1">
         <v>0.11</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22">
       <c r="A18" s="2">
         <v>72</v>
       </c>
@@ -950,15 +1534,15 @@
         <v>72</v>
       </c>
       <c r="C18">
-        <f>4*0.03*F18*(9.356^2)/D18*(SIN(3.14159235659/A18))^2*A18</f>
-        <v>0.23068381356795864</v>
+        <f t="shared" si="9"/>
+        <v>0.230683813567959</v>
       </c>
       <c r="D18">
-        <f>46.784*B18/30</f>
+        <f t="shared" si="10"/>
         <v>112.2816</v>
       </c>
       <c r="E18">
-        <f>144*B18</f>
+        <f t="shared" si="11"/>
         <v>10368</v>
       </c>
       <c r="F18">
@@ -980,7 +1564,7 @@
         <v>22.27</v>
       </c>
       <c r="L18">
-        <v>8.6999999999999994E-2</v>
+        <v>0.087</v>
       </c>
       <c r="M18">
         <v>22.22</v>
@@ -1001,10 +1585,10 @@
         <v>23.3096</v>
       </c>
       <c r="S18">
-        <v>0.14879999999999999</v>
+        <v>0.1488</v>
       </c>
       <c r="T18">
-        <v>24.203399999999998</v>
+        <v>24.2034</v>
       </c>
       <c r="U18">
         <v>0.15</v>
@@ -1013,10 +1597,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" ht="15" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>120</v>
       </c>
@@ -1024,15 +1608,15 @@
         <v>120</v>
       </c>
       <c r="C20">
-        <f>4*0.03*F20*(9.356^2)/D20*(SIN(3.14159235659/A20))^2*A20</f>
-        <v>8.7695463077690841E-2</v>
+        <f t="shared" ref="C20:C22" si="12">4*0.03*F20*(9.356^2)/D20*(SIN(3.14159235659/A20))^2*A20</f>
+        <v>0.0876954630776908</v>
       </c>
       <c r="D20">
-        <f>46.784*B20/30</f>
+        <f t="shared" ref="D20:D22" si="13">46.784*B20/30</f>
         <v>187.136</v>
       </c>
       <c r="E20">
-        <f>144*B20</f>
+        <f t="shared" ref="E20:E22" si="14">144*B20</f>
         <v>17280</v>
       </c>
       <c r="F20">
@@ -1063,10 +1647,10 @@
         <v>21.1144</v>
       </c>
       <c r="O20">
-        <v>7.7200000000000005E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.0772</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A21" s="1">
         <v>128</v>
       </c>
@@ -1074,15 +1658,15 @@
         <v>128</v>
       </c>
       <c r="C21" s="1">
-        <f>4*0.03*F21*(9.356^2)/D21*(SIN(3.14159235659/A21))^2*A21</f>
-        <v>8.1134971643089082E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.0811349716430891</v>
       </c>
       <c r="D21" s="1">
-        <f>46.784*B21/30</f>
-        <v>199.61173333333332</v>
+        <f t="shared" si="13"/>
+        <v>199.611733333333</v>
       </c>
       <c r="E21" s="1">
-        <f>144*B21</f>
+        <f t="shared" si="14"/>
         <v>18432</v>
       </c>
       <c r="F21" s="1">
@@ -1101,7 +1685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" spans="1:10">
       <c r="A22" s="2">
         <v>136</v>
       </c>
@@ -1109,15 +1693,15 @@
         <v>136</v>
       </c>
       <c r="C22" s="2">
-        <f>4*0.03*F22*(9.356^2)/D22*(SIN(3.14159235659/A22))^2*A22</f>
-        <v>7.1872072666306089E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.0718720726663061</v>
       </c>
       <c r="D22" s="2">
-        <f>46.784*B22/30</f>
-        <v>212.08746666666667</v>
+        <f t="shared" si="13"/>
+        <v>212.087466666667</v>
       </c>
       <c r="E22" s="2">
-        <f>144*B22</f>
+        <f t="shared" si="14"/>
         <v>19584</v>
       </c>
       <c r="F22" s="2">
@@ -1136,11 +1720,11 @@
         <v>472000</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" ht="15" spans="7:8">
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>248</v>
       </c>
@@ -1148,15 +1732,15 @@
         <v>248</v>
       </c>
       <c r="C24">
-        <f>4*0.03*F24*(9.356^2)/D24*(SIN(3.14159235659/A24))^2*A24</f>
-        <v>2.2697495663087625E-2</v>
+        <f t="shared" ref="C24:C26" si="15">4*0.03*F24*(9.356^2)/D24*(SIN(3.14159235659/A24))^2*A24</f>
+        <v>0.0226974956630876</v>
       </c>
       <c r="D24">
-        <f>46.784*B24/30</f>
-        <v>386.74773333333331</v>
+        <f t="shared" ref="D24:D26" si="16">46.784*B24/30</f>
+        <v>386.747733333333</v>
       </c>
       <c r="E24">
-        <f>144*B24</f>
+        <f t="shared" ref="E24:E26" si="17">144*B24</f>
         <v>35712</v>
       </c>
       <c r="F24">
@@ -1166,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:8">
       <c r="A25" s="1">
         <v>256</v>
       </c>
@@ -1174,15 +1758,15 @@
         <v>256</v>
       </c>
       <c r="C25" s="1">
-        <f>4*0.03*F25*(9.356^2)/D25*(SIN(3.14159235659/A25))^2*A25</f>
-        <v>2.1301137807933065E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.0213011378079331</v>
       </c>
       <c r="D25" s="1">
-        <f>46.784*B25/30</f>
-        <v>399.22346666666664</v>
+        <f t="shared" si="16"/>
+        <v>399.223466666667</v>
       </c>
       <c r="E25" s="1">
-        <f>144*B25</f>
+        <f t="shared" si="17"/>
         <v>36864</v>
       </c>
       <c r="F25" s="1">
@@ -1192,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>264</v>
       </c>
@@ -1200,15 +1784,15 @@
         <v>264</v>
       </c>
       <c r="C26">
-        <f>4*0.03*F26*(9.356^2)/D26*(SIN(3.14159235659/A26))^2*A26</f>
-        <v>2.002978004797611E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.0200297800479761</v>
       </c>
       <c r="D26">
-        <f>46.784*B26/30</f>
-        <v>411.69920000000002</v>
+        <f t="shared" si="16"/>
+        <v>411.6992</v>
       </c>
       <c r="E26">
-        <f>144*B26</f>
+        <f t="shared" si="17"/>
         <v>38016</v>
       </c>
       <c r="F26">
@@ -1218,7 +1802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>64</v>
       </c>
@@ -1227,18 +1811,18 @@
       </c>
       <c r="C28">
         <f>4*0.08*21*(9.356^2)/D28*(SIN(2*3.14159235659/A28))^2*A28</f>
-        <v>3.6239114461014714</v>
+        <v>3.62391144610147</v>
       </c>
       <c r="D28">
         <f>46.784*B28/30</f>
-        <v>99.80586666666666</v>
+        <v>99.8058666666667</v>
       </c>
       <c r="E28">
         <f>144*B28</f>
         <v>9216</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>40</v>
       </c>
@@ -1246,19 +1830,19 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C40" si="0">4*0.03*F30*(9.356^2)/D30*(SIN(3.14159235659/A30))^2*A30</f>
-        <v>0.72976790414170389</v>
+        <f t="shared" ref="C30:C40" si="18">4*0.03*F30*(9.356^2)/D30*(SIN(3.14159235659/A30))^2*A30</f>
+        <v>0.729767904141704</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:D40" si="1">46.784*B30/30</f>
-        <v>62.37866666666666</v>
+        <f t="shared" ref="D30:D40" si="19">46.784*B30/30</f>
+        <v>62.3786666666667</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E40" si="2">144*B30</f>
+        <f t="shared" ref="E30:E40" si="20">144*B30</f>
         <v>5760</v>
       </c>
       <c r="F30">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
@@ -1273,7 +1857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="31" ht="15" spans="1:11">
       <c r="A31">
         <v>48</v>
       </c>
@@ -1281,15 +1865,15 @@
         <v>48</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>0.51862691890677648</v>
+        <f t="shared" si="18"/>
+        <v>0.518626918906776</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
-        <v>74.854399999999998</v>
+        <f t="shared" si="19"/>
+        <v>74.8544</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>6912</v>
       </c>
       <c r="F31">
@@ -1305,7 +1889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>56</v>
       </c>
@@ -1313,15 +1897,15 @@
         <v>56</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>0.38117643115490385</v>
+        <f t="shared" si="18"/>
+        <v>0.381176431154904</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
-        <v>87.330133333333336</v>
+        <f t="shared" si="19"/>
+        <v>87.3301333333333</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>8064</v>
       </c>
       <c r="F32">
@@ -1340,7 +1924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>64</v>
       </c>
@@ -1348,15 +1932,15 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0.29190998282043018</v>
+        <f t="shared" si="18"/>
+        <v>0.29190998282043</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
-        <v>99.80586666666666</v>
+        <f t="shared" si="19"/>
+        <v>99.8058666666667</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>9216</v>
       </c>
       <c r="F33">
@@ -1369,7 +1953,7 @@
         <v>6</v>
       </c>
       <c r="I33">
-        <v>19.079999999999998</v>
+        <v>19.08</v>
       </c>
       <c r="J33">
         <v>0.11</v>
@@ -1378,7 +1962,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>72</v>
       </c>
@@ -1386,15 +1970,15 @@
         <v>72</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.23068381356795864</v>
+        <f t="shared" si="18"/>
+        <v>0.230683813567959</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>112.2816</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>10368</v>
       </c>
       <c r="F34">
@@ -1410,7 +1994,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" ht="15" spans="1:11">
       <c r="A35">
         <v>80</v>
       </c>
@@ -1418,15 +2002,15 @@
         <v>80</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0.18687642335042051</v>
+        <f t="shared" si="18"/>
+        <v>0.186876423350421</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
-        <v>124.75733333333332</v>
+        <f t="shared" si="19"/>
+        <v>124.757333333333</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>11520</v>
       </c>
       <c r="F35">
@@ -1442,13 +2026,13 @@
         <v>22.42</v>
       </c>
       <c r="J35">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="K35">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" ht="15" spans="1:8">
       <c r="A36">
         <v>88</v>
       </c>
@@ -1456,15 +2040,15 @@
         <v>88</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0.15445710547762773</v>
+        <f t="shared" si="18"/>
+        <v>0.154457105477628</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
-        <v>137.23306666666667</v>
+        <f t="shared" si="19"/>
+        <v>137.233066666667</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>12672</v>
       </c>
       <c r="F36">
@@ -1477,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" ht="15" spans="1:8">
       <c r="A37">
         <v>96</v>
       </c>
@@ -1485,15 +2069,15 @@
         <v>96</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.13700655212290977</v>
+        <f t="shared" si="18"/>
+        <v>0.13700655212291</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>149.7088</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>13824</v>
       </c>
       <c r="F37">
@@ -1506,7 +2090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>104</v>
       </c>
@@ -1514,22 +2098,22 @@
         <v>104</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>0.12288997460616975</v>
+        <f t="shared" si="18"/>
+        <v>0.12288997460617</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
-        <v>162.18453333333335</v>
+        <f t="shared" si="19"/>
+        <v>162.184533333333</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>14976</v>
       </c>
       <c r="F38">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>112</v>
       </c>
@@ -1537,22 +2121,22 @@
         <v>112</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>0.10596569379076676</v>
+        <f t="shared" si="18"/>
+        <v>0.105965693790767</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
-        <v>174.66026666666667</v>
+        <f t="shared" si="19"/>
+        <v>174.660266666667</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>16128</v>
       </c>
       <c r="F39">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" ht="15" spans="1:8">
       <c r="A40">
         <v>120</v>
       </c>
@@ -1560,15 +2144,15 @@
         <v>120</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>9.2311013765990366E-2</v>
+        <f t="shared" si="18"/>
+        <v>0.0923110137659904</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>187.136</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>17280</v>
       </c>
       <c r="F40">
@@ -1581,26 +2165,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45">
-        <f>30.1762*1.5^(A45-1)</f>
-        <v>30.176200000000001</v>
+        <f t="shared" ref="B45:B49" si="21">30.1762*1.5^(A45-1)</f>
+        <v>30.1762</v>
       </c>
       <c r="C45">
-        <f>2592*1.5^(A45-1)</f>
+        <f t="shared" ref="C45:C49" si="22">2592*1.5^(A45-1)</f>
         <v>2592</v>
       </c>
       <c r="D45">
-        <f>B45/1.56</f>
-        <v>19.343717948717948</v>
+        <f t="shared" ref="D45:D49" si="23">B45/1.56</f>
+        <v>19.3437179487179</v>
       </c>
       <c r="E45">
         <v>7</v>
@@ -1609,21 +2193,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46">
-        <f>30.1762*1.5^(A46-1)</f>
-        <v>45.264300000000006</v>
+        <f t="shared" si="21"/>
+        <v>45.2643</v>
       </c>
       <c r="C46">
-        <f>2592*1.5^(A46-1)</f>
+        <f t="shared" si="22"/>
         <v>3888</v>
       </c>
       <c r="D46">
-        <f>B46/1.56</f>
-        <v>29.015576923076924</v>
+        <f t="shared" si="23"/>
+        <v>29.0155769230769</v>
       </c>
       <c r="E46">
         <v>7</v>
@@ -1632,21 +2216,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47">
-        <f>30.1762*1.5^(A47-1)</f>
-        <v>67.896450000000002</v>
+        <f t="shared" si="21"/>
+        <v>67.89645</v>
       </c>
       <c r="C47">
-        <f>2592*1.5^(A47-1)</f>
+        <f t="shared" si="22"/>
         <v>5832</v>
       </c>
       <c r="D47">
-        <f>B47/1.56</f>
-        <v>43.523365384615381</v>
+        <f t="shared" si="23"/>
+        <v>43.5233653846154</v>
       </c>
       <c r="E47">
         <v>7</v>
@@ -1655,21 +2239,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>4</v>
       </c>
       <c r="B48">
-        <f>30.1762*1.5^(A48-1)</f>
-        <v>101.84467500000001</v>
+        <f t="shared" si="21"/>
+        <v>101.844675</v>
       </c>
       <c r="C48">
-        <f>2592*1.5^(A48-1)</f>
+        <f t="shared" si="22"/>
         <v>8748</v>
       </c>
       <c r="D48">
-        <f>B48/1.56</f>
-        <v>65.285048076923076</v>
+        <f t="shared" si="23"/>
+        <v>65.2850480769231</v>
       </c>
       <c r="E48">
         <v>7</v>
@@ -1678,21 +2262,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>5</v>
       </c>
       <c r="B49">
-        <f>30.1762*1.5^(A49-1)</f>
-        <v>152.76701250000002</v>
+        <f t="shared" si="21"/>
+        <v>152.7670125</v>
       </c>
       <c r="C49">
-        <f>2592*1.5^(A49-1)</f>
+        <f t="shared" si="22"/>
         <v>13122</v>
       </c>
       <c r="D49">
-        <f>B49/1.56</f>
-        <v>97.927572115384621</v>
+        <f t="shared" si="23"/>
+        <v>97.9275721153846</v>
       </c>
       <c r="E49">
         <v>7</v>
@@ -1701,18 +2285,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>12</v>
       </c>
       <c r="B50">
-        <v>24.913291792900001</v>
+        <v>24.9132917929</v>
       </c>
       <c r="C50">
-        <v>-0.42749493795499999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-0.427494937955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -1720,11 +2304,11 @@
         <v>26.0493539177</v>
       </c>
       <c r="C51">
-        <v>-0.50239149529000005</v>
+        <v>-0.50239149529</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.393055555555556" bottom="0.393055555555556" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1733,17 +2317,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.393055555555556" bottom="0.393055555555556" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1752,17 +2339,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.393055555555556" bottom="0.393055555555556" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
